--- a/data/electric_vehicles/BEV_Stromverbrauch.xlsx
+++ b/data/electric_vehicles/BEV_Stromverbrauch.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katja\Desktop\Data Science Frank\DSI_Weiterbildung\Abschlussprojekt\data\electric_vehicles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4CA829-F2F2-4351-BC26-9C389BDC9791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017F2499-10E5-4CC7-86CF-4B8212E225E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B87C10B-5CDD-450B-A84A-F1B39C5EA7B4}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9B87C10B-5CDD-450B-A84A-F1B39C5EA7B4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Verbrauchstests" sheetId="1" r:id="rId1"/>
+    <sheet name="WLTP-Herstellerangaben" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="131">
   <si>
     <t>Modell</t>
   </si>
@@ -284,6 +284,141 @@
   </si>
   <si>
     <t>Reduzierung der Reichweite im Winter um 20-30 % i</t>
+  </si>
+  <si>
+    <t>Hyundai Kona Elektro</t>
+  </si>
+  <si>
+    <t>Kia e-Soul Spirit</t>
+  </si>
+  <si>
+    <t>BMW i3</t>
+  </si>
+  <si>
+    <t>Citroën ë-C3</t>
+  </si>
+  <si>
+    <t>Renault Zoe R135</t>
+  </si>
+  <si>
+    <t>WLTP_Verbrauch_(kWh/100km)</t>
+  </si>
+  <si>
+    <t>VW ID.3</t>
+  </si>
+  <si>
+    <t>Opel Mokka-e</t>
+  </si>
+  <si>
+    <t>DS3 Crossback E-Tense</t>
+  </si>
+  <si>
+    <t>Kia e-Niro Spirit</t>
+  </si>
+  <si>
+    <t>MG ZS EV Luxury</t>
+  </si>
+  <si>
+    <t>Mazda MX-30</t>
+  </si>
+  <si>
+    <t>Hyundai Ioniq 5 (63 kWh Batterie)</t>
+  </si>
+  <si>
+    <t>Ford Mustang Mach-E</t>
+  </si>
+  <si>
+    <t>Renault Mégane E-tech</t>
+  </si>
+  <si>
+    <t>MG ZS Long Range</t>
+  </si>
+  <si>
+    <t>Mercedes EQA 250</t>
+  </si>
+  <si>
+    <t>Kia EV6 4WD</t>
+  </si>
+  <si>
+    <t>Audi e-tron Q4 40</t>
+  </si>
+  <si>
+    <t>VW ID.5 GTX</t>
+  </si>
+  <si>
+    <t>BMW iX3</t>
+  </si>
+  <si>
+    <t>VW ID.4 GTX</t>
+  </si>
+  <si>
+    <t>BMW i4 M50</t>
+  </si>
+  <si>
+    <t>Audi e-tron Q4 50 quattro</t>
+  </si>
+  <si>
+    <t>Xpeng P7</t>
+  </si>
+  <si>
+    <t>BMW iX xDrive40</t>
+  </si>
+  <si>
+    <t>Maxus Euniq6</t>
+  </si>
+  <si>
+    <t>Volvo C40 Recharge</t>
+  </si>
+  <si>
+    <t>NIO ES8</t>
+  </si>
+  <si>
+    <t>BYD Tang</t>
+  </si>
+  <si>
+    <t>Porsche Taycan 4 Cross Turismo</t>
+  </si>
+  <si>
+    <t>Audi e-tron GT</t>
+  </si>
+  <si>
+    <t>Porsche Taycan 4S</t>
+  </si>
+  <si>
+    <t>VW ID.4 Pro</t>
+  </si>
+  <si>
+    <t>Nissan Leaf e+ Tekna</t>
+  </si>
+  <si>
+    <t>Tesla Model Y</t>
+  </si>
+  <si>
+    <t>Hongqi EHS-9</t>
+  </si>
+  <si>
+    <t>BMW iX xDrive50</t>
+  </si>
+  <si>
+    <t>Jaguar i-Pace</t>
+  </si>
+  <si>
+    <t>Mercedes EQC 400</t>
+  </si>
+  <si>
+    <t>Audi e-tron 55</t>
+  </si>
+  <si>
+    <t>Audi e-tron Sportback</t>
+  </si>
+  <si>
+    <t>Volvo XC40 Recharge</t>
+  </si>
+  <si>
+    <t>Tesla Model X</t>
+  </si>
+  <si>
+    <t>Nissan e-NV200</t>
   </si>
 </sst>
 </file>
@@ -349,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -362,6 +497,9 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -680,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ED2687-4F21-4BB6-89DA-03A66976091F}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,7 +1683,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -1711,12 +1849,801 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08392DB-6767-4D08-871F-53BD94AC113C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="3" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="5">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="5">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="5">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="5">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="5">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="5">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="5">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="5">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="5">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="5">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="5">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="5">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="5">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="5">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="5">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="5">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="5">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="5">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="5">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="5">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="5">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="5">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="5">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="5">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="5">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="5">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="5">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="5">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="5">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="5">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="5">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="5">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="5">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="5">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="5">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="5">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="5">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="5">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="5">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="5">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="5">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="5">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="5">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="5">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="5">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="5">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="5">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="5">
+        <v>26.6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>